--- a/data/for_parse/wood_list_example_1.xlsx
+++ b/data/for_parse/wood_list_example_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WoodWasteCalc\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WoodWasteCalc\data\for_parse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B8FF34-5370-4E21-9DA6-6AFD7C0DCCD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47EB566-53FD-40EE-9AC5-AD1DB895DF45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{8667FDE3-FC0D-430E-AED6-393CE3C9313A}"/>
+    <workbookView xWindow="4050" yWindow="3510" windowWidth="24750" windowHeight="11295" xr2:uid="{8667FDE3-FC0D-430E-AED6-393CE3C9313A}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -269,15 +269,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -285,20 +303,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -616,389 +658,389 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>4</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>4</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>4</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>4</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="9" t="s">
         <v>65</v>
       </c>
     </row>
